--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="698">
   <si>
     <t>Title</t>
   </si>
@@ -2150,12 +2150,31 @@
   <si>
     <t>Action_Automationdata</t>
   </si>
+  <si>
+    <t>88285</t>
+  </si>
+  <si>
+    <t>Action_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>22262</t>
+  </si>
+  <si>
+    <t>27006</t>
+  </si>
+  <si>
+    <t>55658</t>
+  </si>
+  <si>
+    <t>44169</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3119,13 +3138,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4"/>
-    <col min="6" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="16.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="11.90625" collapsed="true"/>
+    <col min="5" max="5" style="4" width="8.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="14.1796875" collapsed="true"/>
+    <col min="7" max="16384" style="4" width="8.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3545,12 +3564,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="62.36328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="50.36328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -7410,57 +7429,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.1796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="20.1796875" style="19" customWidth="1"/>
-    <col min="33" max="33" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="27" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.1796875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="19" width="23.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="22.81640625" collapsed="true"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="15" max="17" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.1796875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="29" max="32" customWidth="true" style="19" width="20.1796875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="53.6328125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="53.1796875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="19" width="17.90625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="19" width="26.6328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
@@ -7664,11 +7683,11 @@
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>73378</v>
+      <c r="A2" t="s">
+        <v>697</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D2" t="s">
         <v>691</v>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="592">
   <si>
     <t>Title</t>
   </si>
@@ -2335,6 +2335,12 @@
   </si>
   <si>
     <t>43607</t>
+  </si>
+  <si>
+    <t>98223</t>
+  </si>
+  <si>
+    <t>68946</t>
   </si>
 </sst>
 </file>
@@ -7226,7 +7232,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="594">
   <si>
     <t>Title</t>
   </si>
@@ -2341,6 +2341,12 @@
   </si>
   <si>
     <t>68946</t>
+  </si>
+  <si>
+    <t>74478</t>
+  </si>
+  <si>
+    <t>83534</t>
   </si>
 </sst>
 </file>
@@ -7232,7 +7238,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="595">
   <si>
     <t>Title</t>
   </si>
@@ -2347,6 +2347,9 @@
   </si>
   <si>
     <t>83534</t>
+  </si>
+  <si>
+    <t>30053</t>
   </si>
 </sst>
 </file>
@@ -7238,7 +7241,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="597">
   <si>
     <t>Title</t>
   </si>
@@ -2350,6 +2350,12 @@
   </si>
   <si>
     <t>30053</t>
+  </si>
+  <si>
+    <t>18858</t>
+  </si>
+  <si>
+    <t>18360</t>
   </si>
 </sst>
 </file>
@@ -7241,7 +7247,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="599">
   <si>
     <t>Title</t>
   </si>
@@ -2356,6 +2356,12 @@
   </si>
   <si>
     <t>18360</t>
+  </si>
+  <si>
+    <t>97007</t>
+  </si>
+  <si>
+    <t>58199</t>
   </si>
 </sst>
 </file>
@@ -7247,7 +7253,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="600">
   <si>
     <t>Title</t>
   </si>
@@ -2362,6 +2362,9 @@
   </si>
   <si>
     <t>58199</t>
+  </si>
+  <si>
+    <t>28769</t>
   </si>
 </sst>
 </file>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="601">
   <si>
     <t>Title</t>
   </si>
@@ -2365,6 +2365,9 @@
   </si>
   <si>
     <t>28769</t>
+  </si>
+  <si>
+    <t>97156</t>
   </si>
 </sst>
 </file>
@@ -7256,7 +7259,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="606">
   <si>
     <t>Title</t>
   </si>
@@ -2368,6 +2368,21 @@
   </si>
   <si>
     <t>97156</t>
+  </si>
+  <si>
+    <t>83975</t>
+  </si>
+  <si>
+    <t>88667</t>
+  </si>
+  <si>
+    <t>58061</t>
+  </si>
+  <si>
+    <t>42301</t>
+  </si>
+  <si>
+    <t>35037</t>
   </si>
 </sst>
 </file>
@@ -7259,7 +7274,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="607">
   <si>
     <t>Title</t>
   </si>
@@ -2383,6 +2383,9 @@
   </si>
   <si>
     <t>35037</t>
+  </si>
+  <si>
+    <t>91765</t>
   </si>
 </sst>
 </file>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="609">
   <si>
     <t>Title</t>
   </si>
@@ -2386,6 +2386,12 @@
   </si>
   <si>
     <t>91765</t>
+  </si>
+  <si>
+    <t>78439</t>
+  </si>
+  <si>
+    <t>32223</t>
   </si>
 </sst>
 </file>
@@ -7277,7 +7283,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="620">
   <si>
     <t>Title</t>
   </si>
@@ -2392,6 +2392,39 @@
   </si>
   <si>
     <t>32223</t>
+  </si>
+  <si>
+    <t>35990</t>
+  </si>
+  <si>
+    <t>70555</t>
+  </si>
+  <si>
+    <t>71294</t>
+  </si>
+  <si>
+    <t>93466</t>
+  </si>
+  <si>
+    <t>15850</t>
+  </si>
+  <si>
+    <t>84712</t>
+  </si>
+  <si>
+    <t>55730</t>
+  </si>
+  <si>
+    <t>55026</t>
+  </si>
+  <si>
+    <t>71312</t>
+  </si>
+  <si>
+    <t>78921</t>
+  </si>
+  <si>
+    <t>43008</t>
   </si>
 </sst>
 </file>
@@ -7283,7 +7316,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="621">
   <si>
     <t>Title</t>
   </si>
@@ -2425,6 +2425,9 @@
   </si>
   <si>
     <t>43008</t>
+  </si>
+  <si>
+    <t>68752</t>
   </si>
 </sst>
 </file>
@@ -7316,7 +7319,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="646">
   <si>
     <t>Title</t>
   </si>
@@ -2428,6 +2428,81 @@
   </si>
   <si>
     <t>68752</t>
+  </si>
+  <si>
+    <t>99877</t>
+  </si>
+  <si>
+    <t>16171</t>
+  </si>
+  <si>
+    <t>53415</t>
+  </si>
+  <si>
+    <t>23213</t>
+  </si>
+  <si>
+    <t>36544</t>
+  </si>
+  <si>
+    <t>85222</t>
+  </si>
+  <si>
+    <t>46312</t>
+  </si>
+  <si>
+    <t>30793</t>
+  </si>
+  <si>
+    <t>22990</t>
+  </si>
+  <si>
+    <t>72513</t>
+  </si>
+  <si>
+    <t>75548</t>
+  </si>
+  <si>
+    <t>71824</t>
+  </si>
+  <si>
+    <t>27567</t>
+  </si>
+  <si>
+    <t>73844</t>
+  </si>
+  <si>
+    <t>18997</t>
+  </si>
+  <si>
+    <t>63691</t>
+  </si>
+  <si>
+    <t>40406</t>
+  </si>
+  <si>
+    <t>61307</t>
+  </si>
+  <si>
+    <t>34764</t>
+  </si>
+  <si>
+    <t>72613</t>
+  </si>
+  <si>
+    <t>77687</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>60597</t>
+  </si>
+  <si>
+    <t>31502</t>
+  </si>
+  <si>
+    <t>24389</t>
   </si>
 </sst>
 </file>
@@ -7319,7 +7394,7 @@
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="11" t="s">
